--- a/Jogos_do_Dia/2023-11-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ5"/>
+  <dimension ref="A1:AQ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>3.05</v>
       </c>
       <c r="K2" t="n">
-        <v>2.99</v>
+        <v>3.64</v>
       </c>
       <c r="L2" t="n">
-        <v>3.34</v>
+        <v>1.98</v>
       </c>
       <c r="M2" t="n">
         <v>1.38</v>
@@ -718,10 +718,10 @@
         <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="T2" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -830,13 +830,13 @@
         <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>6.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="L3" t="n">
-        <v>1.55</v>
+        <v>1.45</v>
       </c>
       <c r="M3" t="n">
         <v>1.3</v>
@@ -860,7 +860,7 @@
         <v>1.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U3" t="n">
         <v>1.65</v>
@@ -902,10 +902,10 @@
         <v>1.55</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AJ3" t="n">
         <v>1.4</v>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.07</v>
+        <v>2.53</v>
       </c>
       <c r="K4" t="n">
-        <v>3.09</v>
+        <v>3.4</v>
       </c>
       <c r="L4" t="n">
-        <v>3.09</v>
+        <v>2.38</v>
       </c>
       <c r="M4" t="n">
         <v>1.55</v>
@@ -996,10 +996,10 @@
         <v>2.65</v>
       </c>
       <c r="S4" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1108,13 +1108,13 @@
         <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>3.76</v>
+        <v>5.24</v>
       </c>
       <c r="K5" t="n">
-        <v>3.12</v>
+        <v>4.29</v>
       </c>
       <c r="L5" t="n">
-        <v>1.66</v>
+        <v>1.46</v>
       </c>
       <c r="M5" t="n">
         <v>1.36</v>
@@ -1135,10 +1135,10 @@
         <v>3.45</v>
       </c>
       <c r="S5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1208,6 +1208,284 @@
       </c>
       <c r="AQ5" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>36</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6.07</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="P6" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W6" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="X6" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Uruguay Primera División</t>
+        </is>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>45244</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>10</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Peñarol</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cerro Largo</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="I7" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="N7" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="P7" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="R7" t="n">
+        <v>4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V7" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="W7" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="X7" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia/2023-11-14_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-11-14_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -691,13 +691,13 @@
         <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>3.05</v>
+        <v>2.25</v>
       </c>
       <c r="K2" t="n">
-        <v>3.64</v>
+        <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.98</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
         <v>1.38</v>
@@ -718,10 +718,10 @@
         <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="U2" t="n">
         <v>1.8</v>
@@ -739,10 +739,10 @@
         <v>1.8</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AB2" t="n">
         <v>1.28</v>
@@ -830,13 +830,13 @@
         <v>2.05</v>
       </c>
       <c r="J3" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="K3" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="L3" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="M3" t="n">
         <v>1.3</v>
@@ -857,10 +857,10 @@
         <v>4.2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="U3" t="n">
         <v>1.65</v>
@@ -878,10 +878,10 @@
         <v>1.14</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AB3" t="n">
         <v>1.07</v>
@@ -969,13 +969,13 @@
         <v>4</v>
       </c>
       <c r="J4" t="n">
-        <v>2.53</v>
+        <v>2.1</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>3.15</v>
       </c>
       <c r="L4" t="n">
-        <v>2.38</v>
+        <v>3.15</v>
       </c>
       <c r="M4" t="n">
         <v>1.55</v>
@@ -990,16 +990,16 @@
         <v>7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="R4" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="S4" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="T4" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="U4" t="n">
         <v>2.05</v>
@@ -1108,13 +1108,13 @@
         <v>2.35</v>
       </c>
       <c r="J5" t="n">
-        <v>5.24</v>
+        <v>3.8</v>
       </c>
       <c r="K5" t="n">
-        <v>4.29</v>
+        <v>3.3</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46</v>
+        <v>1.83</v>
       </c>
       <c r="M5" t="n">
         <v>1.36</v>
@@ -1135,10 +1135,10 @@
         <v>3.45</v>
       </c>
       <c r="S5" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T5" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1247,13 +1247,13 @@
         <v>2.3</v>
       </c>
       <c r="J6" t="n">
-        <v>6.07</v>
+        <v>3.88</v>
       </c>
       <c r="K6" t="n">
-        <v>4.3</v>
+        <v>3.22</v>
       </c>
       <c r="L6" t="n">
-        <v>1.4</v>
+        <v>2.04</v>
       </c>
       <c r="M6" t="n">
         <v>1.5</v>
@@ -1268,16 +1268,16 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="R6" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="T6" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="U6" t="n">
         <v>2.38</v>
@@ -1386,13 +1386,13 @@
         <v>6.75</v>
       </c>
       <c r="J7" t="n">
-        <v>1.67</v>
+        <v>1.36</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>4.33</v>
       </c>
       <c r="L7" t="n">
-        <v>3.87</v>
+        <v>8.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.31</v>
@@ -1413,7 +1413,7 @@
         <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="T7" t="n">
         <v>1.8</v>
